--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0A3193-79D4-484F-9408-455C6D14133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A784C-7A98-4272-A69F-06E7BDBB71BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="720" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>번호</t>
   </si>
@@ -150,23 +150,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q&amp;A게시판에 등록할 질문 작성 및 수정, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:1 문의 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1:1 문의에 대한 답변 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 게시판에 게시물 작성 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 게시판에 게시물 작성 및 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,18 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예약 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">예약 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약한 내용 상세 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +248,6 @@
   </si>
   <si>
     <t>카카오 맵을 통한 캠핑장 선택 및 예약 상세내용 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠핑장 예약 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,15 +347,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰 작성 페이지 / 고캠핑 API, 카카오 맵 API를 통한 캠핑장 선택 및 별점 부여 / 이미지 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,6 +441,34 @@
   </si>
   <si>
     <t>웹 사이트 이용 방법 및 소개.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판에 등록할 질문 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판에 게시물  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 게시판에 게시물  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장 예약 수정 및 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1258,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1344,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="60"/>
@@ -1354,10 +1345,10 @@
       <c r="A9" s="70"/>
       <c r="B9" s="66"/>
       <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="60"/>
@@ -1370,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="57"/>
@@ -1383,7 +1374,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="44"/>
@@ -1396,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="57"/>
@@ -1409,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="44"/>
@@ -1420,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="67" t="s">
         <v>22</v>
@@ -1438,10 +1429,10 @@
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="60"/>
@@ -1451,10 +1442,10 @@
       <c r="A16" s="70"/>
       <c r="B16" s="71"/>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="60"/>
@@ -1464,10 +1455,10 @@
       <c r="A17" s="70"/>
       <c r="B17" s="71"/>
       <c r="C17" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="60"/>
@@ -1477,10 +1468,10 @@
       <c r="A18" s="70"/>
       <c r="B18" s="71"/>
       <c r="C18" s="58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="60"/>
@@ -1490,10 +1481,10 @@
       <c r="A19" s="70"/>
       <c r="B19" s="71"/>
       <c r="C19" s="58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="60"/>
@@ -1509,13 +1500,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="68" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="7"/>
@@ -1524,10 +1515,10 @@
       <c r="A21" s="70"/>
       <c r="B21" s="62"/>
       <c r="C21" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="60"/>
@@ -1540,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="60"/>
@@ -1551,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>21</v>
@@ -1568,11 +1559,11 @@
     <row r="24" spans="1:62" ht="24" customHeight="1">
       <c r="A24" s="70"/>
       <c r="B24" s="63"/>
-      <c r="C24" s="17" t="s">
-        <v>57</v>
+      <c r="C24" s="82" t="s">
+        <v>91</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E24" s="67"/>
       <c r="F24" s="60"/>
@@ -1581,11 +1572,9 @@
     <row r="25" spans="1:62" ht="25.5" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="C25" s="72"/>
       <c r="D25" s="19" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="44"/>
@@ -1594,11 +1583,9 @@
     <row r="26" spans="1:62" ht="26.25" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="C26" s="72"/>
       <c r="D26" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="44"/>
@@ -1612,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27" s="69" t="s">
         <v>22</v>
@@ -1627,10 +1614,10 @@
       <c r="A28" s="70"/>
       <c r="B28" s="59"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E28" s="69"/>
       <c r="F28" s="60"/>
@@ -1640,10 +1627,10 @@
       <c r="A29" s="70"/>
       <c r="B29" s="59"/>
       <c r="C29" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29" s="69"/>
       <c r="F29" s="60"/>
@@ -1712,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="36"/>
@@ -1789,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E31" s="50" t="s">
         <v>20</v>
@@ -1863,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E32" s="50" t="s">
         <v>21</v>
@@ -2005,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
@@ -2024,7 +2011,7 @@
       <c r="B35" s="61"/>
       <c r="C35" s="72"/>
       <c r="D35" s="45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="6"/>
@@ -2074,16 +2061,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="34"/>
@@ -2114,13 +2101,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="56"/>
@@ -2152,13 +2139,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E40" s="67"/>
       <c r="F40" s="76"/>
@@ -2189,10 +2176,10 @@
       <c r="A41" s="74"/>
       <c r="B41" s="74"/>
       <c r="C41" s="30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
@@ -2200,11 +2187,11 @@
     <row r="42" spans="1:62" ht="36" customHeight="1">
       <c r="A42" s="74"/>
       <c r="B42" s="74"/>
-      <c r="C42" s="30" t="s">
-        <v>84</v>
+      <c r="C42" s="75" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
@@ -2212,11 +2199,9 @@
     <row r="43" spans="1:62" ht="39" customHeight="1">
       <c r="A43" s="74"/>
       <c r="B43" s="74"/>
-      <c r="C43" s="30" t="s">
-        <v>91</v>
-      </c>
+      <c r="C43" s="72"/>
       <c r="D43" s="78" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
@@ -2225,10 +2210,10 @@
       <c r="A44" s="74"/>
       <c r="B44" s="74"/>
       <c r="C44" s="30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -2238,13 +2223,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="56"/>
@@ -2256,7 +2241,9 @@
       <c r="B47" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="E40:E44"/>

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A784C-7A98-4272-A69F-06E7BDBB71BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C60CAD-3751-40AD-8E90-EAC3DDB03F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="720" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>번호</t>
   </si>
@@ -300,19 +300,6 @@
   </si>
   <si>
     <t>검색한 캠핑장의 상세 정보 및 리뷰페이지, 예약하기 페이지로 이동하는 버튼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정영훈
-배재천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,6 +363,38 @@
       </rPr>
       <t xml:space="preserve"> 사이트 설문조사</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트 이용 방법 및 소개.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판에 등록할 질문 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판에 게시물  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 게시판에 게시물  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장 예약 수정 및 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰  CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,7 +435,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">코드 &gt;&gt; 사이트의 만족도 조사.   /   예약을 하지 않아도 푸터에 있는 </t>
+      <t xml:space="preserve">코드 발송 &gt;&gt; 사이트의 만족도 조사.   /   예약을 하지 않아도 푸터에 있는 </t>
     </r>
     <r>
       <rPr>
@@ -437,38 +456,6 @@
       </rPr>
       <t>코드로 만족도 설문조사 참여 가능.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 사이트 이용 방법 및 소개.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A게시판에 등록할 질문 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 게시판에 게시물  CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 게시판에 게시물  CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠핑장 예약 수정 및 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰  CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +554,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,12 +618,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -715,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,20 +784,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -824,67 +811,55 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,7 +874,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,7 +898,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -953,13 +928,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1247,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ47"/>
+  <dimension ref="A1:BJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1261,30 +1233,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="2.1" customHeight="1"/>
     <row r="6" spans="1:8" ht="35.65" customHeight="1">
@@ -1310,10 +1282,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1322,95 +1294,95 @@
       <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="60"/>
+        <v>84</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="57"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="44"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="70">
+      <c r="A14" s="68">
         <v>2</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1419,84 +1391,84 @@
       <c r="D14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="60"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="60"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:62" ht="24" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="58" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="60"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="58" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="60"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A20" s="70">
+      <c r="A20" s="68">
         <v>3</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1505,43 +1477,43 @@
       <c r="D20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:62" ht="41.25" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:62" ht="20.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="60"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:62" ht="24" customHeight="1">
-      <c r="A23" s="70">
+      <c r="A23" s="68">
         <v>4</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -1550,52 +1522,52 @@
       <c r="D23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:62" ht="24" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="82" t="s">
-        <v>91</v>
+      <c r="A24" s="68"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="79" t="s">
+        <v>87</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="60"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="44"/>
+        <v>88</v>
+      </c>
+      <c r="E25" s="70"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:62" ht="26.25" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:62" ht="24" customHeight="1">
-      <c r="A27" s="70">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -1604,36 +1576,36 @@
       <c r="D27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:62" ht="24" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -1704,7 +1676,7 @@
       <c r="D30" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="52" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="4"/>
@@ -1776,9 +1748,9 @@
         <v>17</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="4"/>
@@ -1852,7 +1824,7 @@
       <c r="D32" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="48" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="4"/>
@@ -1913,7 +1885,7 @@
       <c r="BI32" s="37"/>
       <c r="BJ32" s="37"/>
     </row>
-    <row r="33" spans="1:62" ht="57" customHeight="1">
+    <row r="33" spans="1:62" ht="103.5" customHeight="1">
       <c r="A33" s="5">
         <v>9</v>
       </c>
@@ -1926,7 +1898,7 @@
       <c r="D33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="6"/>
@@ -1988,50 +1960,50 @@
       <c r="BJ33" s="35"/>
     </row>
     <row r="34" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A34" s="70">
+      <c r="A34" s="68">
         <v>10</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="65" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:62" ht="29.25" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="45" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:62" ht="16.5">
-      <c r="A36" s="70"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="72"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="67"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:62" ht="16.5">
-      <c r="A37" s="70"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="72"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="67"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="6"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
@@ -2056,198 +2028,158 @@
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
     </row>
-    <row r="38" spans="1:62" ht="117" customHeight="1">
-      <c r="A38" s="5">
+    <row r="38" spans="1:62" s="47" customFormat="1" ht="69" customHeight="1">
+      <c r="A38" s="51">
         <v>11</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="54" t="s">
+      <c r="D38" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-    </row>
-    <row r="39" spans="1:62" s="49" customFormat="1" ht="69" customHeight="1">
-      <c r="A39" s="53">
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+    </row>
+    <row r="39" spans="1:62" ht="24" customHeight="1">
+      <c r="A39" s="68">
         <v>12</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-    </row>
-    <row r="40" spans="1:62" ht="24" customHeight="1">
-      <c r="A40" s="70">
+      <c r="E39" s="65"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+    </row>
+    <row r="40" spans="1:62" ht="21.75" customHeight="1">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+    </row>
+    <row r="41" spans="1:62" ht="36" customHeight="1">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+    </row>
+    <row r="42" spans="1:62" ht="39" customHeight="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+    </row>
+    <row r="43" spans="1:62" ht="24" customHeight="1">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+    </row>
+    <row r="44" spans="1:62" ht="59.25" customHeight="1">
+      <c r="A44" s="1">
         <v>13</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-    </row>
-    <row r="41" spans="1:62" ht="21.75" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-    </row>
-    <row r="42" spans="1:62" ht="36" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="78" t="s">
+      <c r="B44" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-    </row>
-    <row r="43" spans="1:62" ht="39" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="78" t="s">
+      <c r="C44" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-    </row>
-    <row r="44" spans="1:62" ht="24" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="30" t="s">
-        <v>94</v>
-      </c>
       <c r="D44" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-    </row>
-    <row r="45" spans="1:62" ht="59.25" customHeight="1">
-      <c r="A45" s="1">
-        <v>14</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
+        <v>91</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="B45" s="38"/>
     </row>
     <row r="46" spans="1:62">
       <c r="B46" s="38"/>
-    </row>
-    <row r="47" spans="1:62">
-      <c r="B47" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="E7:E13"/>

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C60CAD-3751-40AD-8E90-EAC3DDB03F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221C723-5650-4D89-A0ED-4FCD94375CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="720" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>번호</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>전선아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,6 +459,26 @@
         <charset val="129"/>
       </rPr>
       <t>코드로 만족도 설문조사 참여 가능.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WebSocket을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이용한 채팅방 기능. ( 방 만들기, 채팅방 참여 )</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,7 +578,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF38F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -696,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +966,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -945,6 +984,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF38F8F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1219,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ46"/>
+  <dimension ref="A1:BJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1286,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="65" t="s">
         <v>22</v>
@@ -1304,10 +1348,10 @@
       <c r="A8" s="68"/>
       <c r="B8" s="64"/>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="58"/>
@@ -1317,10 +1361,10 @@
       <c r="A9" s="68"/>
       <c r="B9" s="64"/>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="58"/>
@@ -1330,10 +1374,10 @@
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="55"/>
@@ -1343,10 +1387,10 @@
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="42"/>
@@ -1356,10 +1400,10 @@
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="55"/>
@@ -1369,10 +1413,10 @@
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="42"/>
@@ -1383,13 +1427,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>22</v>
@@ -1401,10 +1445,10 @@
       <c r="A15" s="68"/>
       <c r="B15" s="69"/>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="58"/>
@@ -1414,10 +1458,10 @@
       <c r="A16" s="68"/>
       <c r="B16" s="69"/>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="58"/>
@@ -1427,10 +1471,10 @@
       <c r="A17" s="68"/>
       <c r="B17" s="69"/>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="58"/>
@@ -1440,10 +1484,10 @@
       <c r="A18" s="68"/>
       <c r="B18" s="69"/>
       <c r="C18" s="56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="58"/>
@@ -1453,10 +1497,10 @@
       <c r="A19" s="68"/>
       <c r="B19" s="69"/>
       <c r="C19" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="58"/>
@@ -1472,13 +1516,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="7"/>
@@ -1487,10 +1531,10 @@
       <c r="A21" s="68"/>
       <c r="B21" s="60"/>
       <c r="C21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="58"/>
@@ -1503,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="58"/>
@@ -1514,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="65" t="s">
         <v>21</v>
@@ -1532,10 +1576,10 @@
       <c r="A24" s="68"/>
       <c r="B24" s="61"/>
       <c r="C24" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="58"/>
@@ -1546,7 +1590,7 @@
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="70"/>
       <c r="F25" s="42"/>
@@ -1557,7 +1601,7 @@
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
       <c r="D26" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="70"/>
       <c r="F26" s="42"/>
@@ -1571,10 +1615,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="67" t="s">
         <v>22</v>
@@ -1586,10 +1630,10 @@
       <c r="A28" s="68"/>
       <c r="B28" s="57"/>
       <c r="C28" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="58"/>
@@ -1599,10 +1643,10 @@
       <c r="A29" s="68"/>
       <c r="B29" s="57"/>
       <c r="C29" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="58"/>
@@ -1671,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="52" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="36"/>
@@ -1748,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>20</v>
@@ -1822,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>21</v>
@@ -1896,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>19</v>
@@ -1964,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
@@ -1978,33 +2022,70 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:62" ht="29.25" customHeight="1">
+    <row r="35" spans="1:62" ht="34.5" customHeight="1">
       <c r="A35" s="68"/>
       <c r="B35" s="59"/>
       <c r="C35" s="70"/>
       <c r="D35" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:62" ht="16.5">
-      <c r="A36" s="68"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:62" ht="16.5">
-      <c r="A37" s="68"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="29"/>
+    <row r="36" spans="1:62" s="47" customFormat="1" ht="69" customHeight="1">
+      <c r="A36" s="51">
+        <v>11</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+    </row>
+    <row r="37" spans="1:62" ht="24" customHeight="1">
+      <c r="A37" s="68">
+        <v>12</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="E37" s="65"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
@@ -2028,158 +2109,97 @@
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
     </row>
-    <row r="38" spans="1:62" s="47" customFormat="1" ht="69" customHeight="1">
-      <c r="A38" s="51">
-        <v>11</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-    </row>
-    <row r="39" spans="1:62" ht="24" customHeight="1">
-      <c r="A39" s="68">
-        <v>12</v>
-      </c>
-      <c r="B39" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-    </row>
-    <row r="40" spans="1:62" ht="21.75" customHeight="1">
+    <row r="38" spans="1:62" ht="21.75" customHeight="1">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+    </row>
+    <row r="39" spans="1:62" ht="36" customHeight="1">
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+    </row>
+    <row r="40" spans="1:62" ht="39" customHeight="1">
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="75" t="s">
-        <v>77</v>
+      <c r="C40" s="70"/>
+      <c r="D40" s="76" t="s">
+        <v>80</v>
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
     </row>
-    <row r="41" spans="1:62" ht="36" customHeight="1">
+    <row r="41" spans="1:62" ht="24" customHeight="1">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="73" t="s">
-        <v>89</v>
+      <c r="C41" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
     </row>
-    <row r="42" spans="1:62" ht="39" customHeight="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-    </row>
-    <row r="43" spans="1:62" ht="24" customHeight="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-    </row>
-    <row r="44" spans="1:62" ht="59.25" customHeight="1">
-      <c r="A44" s="1">
+    <row r="42" spans="1:62" ht="59.25" customHeight="1">
+      <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="B44" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
-    </row>
-    <row r="45" spans="1:62">
-      <c r="B45" s="38"/>
-    </row>
-    <row r="46" spans="1:62">
-      <c r="B46" s="38"/>
+      <c r="C42" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:62" ht="33" customHeight="1">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="B44" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="E7:E13"/>
@@ -2188,23 +2208,23 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E34:E35"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221C723-5650-4D89-A0ED-4FCD94375CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A205EC-3CA7-4A16-B2FD-14629E180F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="720" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="270" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>번호</t>
   </si>
@@ -114,11 +114,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>배재천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정영훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천시스템결과 &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,12 +482,43 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ㅇ (캠핑장 검색)
+ 지역별,테마별 검색을 통해 사용자가 선택한 조건에 맞는
+캠핑장을 DB에서 골라오도록 구현
+ㅇ (캠핑장 상세검색 및 추천)
+ 지역별, 운영 형태, 입지 구분, 주요 시설, 바닥 형태, 부대 시설과같은 상세검색을 통해 조건에 부합하는 캠핑장만 DB에서 추출하고,
+각각의 조건들을 하나의 문자열로 결합하여 캠핑장의 특징 벡터를 만들고, 사용자가 평가한 캠핑장의 특징과 코사인 유사도를 계산하여,
+Surprise 라이브러리를 사용하여 사용자가 좋은 평점을 줄 캠핑장의 평점을 예측하여 사용자에게 상위 10개의 추천 캠핑장을 출력하여 캠핑장을 추천해주는 기능 구현
+ㅇ (사이트 내 캘린더 기능) 
+STS application 실행 시 terminal을 통해 파이선 파일도 같이 실행시켜 Flask 서버를 통해 사용자 ID를 기반으로 각각의 사용자가
+자신의 메모를 보고, 작성하고, 수정, 삭제, 저장할 수 있도록 구현
+ㅇ (DB 자동업데이트)
+고캠핑과같은 외부 API로부터 캠핑장 데이터를 가져와서 DB에 맞게 변환하고 정제해서 저장하고, 매 2시간마다 자동으로 데이터를 업데이트하여 최신 상태를 유지하도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트 이용을 하면서 간단하게 기록할 수 있는 캘린더 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 api를 통한 ai 챗봇으로 간단한 소통 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,11 +605,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +740,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF38F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,6 +1028,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -986,6 +1054,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6699FF"/>
+      <color rgb="FFCCFF66"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FFF38F8F"/>
     </mruColors>
   </colors>
@@ -1263,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ44"/>
+  <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1277,30 +1349,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="2.1" customHeight="1"/>
     <row r="6" spans="1:8" ht="35.65" customHeight="1">
@@ -1326,10 +1398,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="68">
+      <c r="A7" s="67">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1338,95 +1410,95 @@
       <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="68">
+      <c r="A14" s="67">
         <v>2</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1435,84 +1507,84 @@
       <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="58"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="58"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:62" ht="24" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="56" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="56" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A20" s="68">
+      <c r="A20" s="67">
         <v>3</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1521,43 +1593,43 @@
       <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:62" ht="41.25" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:62" ht="20.25" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:62" ht="24" customHeight="1">
-      <c r="A23" s="68">
+      <c r="A23" s="67">
         <v>4</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="60" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -1566,52 +1638,52 @@
       <c r="D23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:62" ht="24" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="79" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="78" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="42"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:62" ht="26.25" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:62" ht="24" customHeight="1">
-      <c r="A27" s="68">
+      <c r="A27" s="67">
         <v>5</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -1620,36 +1692,36 @@
       <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:62" ht="24" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -1720,7 +1792,7 @@
       <c r="D30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="51" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="4"/>
@@ -1785,16 +1857,16 @@
       <c r="A31" s="5">
         <v>7</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="47" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="4"/>
@@ -1868,7 +1940,7 @@
       <c r="D32" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="47" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="4"/>
@@ -1929,7 +2001,7 @@
       <c r="BI32" s="37"/>
       <c r="BJ32" s="37"/>
     </row>
-    <row r="33" spans="1:62" ht="103.5" customHeight="1">
+    <row r="33" spans="1:62" ht="409.5" customHeight="1">
       <c r="A33" s="5">
         <v>9</v>
       </c>
@@ -1940,9 +2012,9 @@
         <v>12</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="51" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="6"/>
@@ -2004,78 +2076,78 @@
       <c r="BJ33" s="35"/>
     </row>
     <row r="34" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A34" s="68">
+      <c r="A34" s="67">
         <v>10</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="70" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="64" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:62" ht="34.5" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="43" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:62" s="47" customFormat="1" ht="69" customHeight="1">
-      <c r="A36" s="51">
+    <row r="36" spans="1:62" s="46" customFormat="1" ht="69" customHeight="1">
+      <c r="A36" s="50">
         <v>11</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
     </row>
     <row r="37" spans="1:62" ht="24" customHeight="1">
-      <c r="A37" s="68">
+      <c r="A37" s="67">
         <v>12</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -2084,8 +2156,8 @@
       <c r="D37" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="74"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
@@ -2110,87 +2182,118 @@
       <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="1:62" ht="21.75" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="39" spans="1:62" ht="36" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:62" ht="39" customHeight="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="76" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
     </row>
     <row r="41" spans="1:62" ht="24" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
     </row>
     <row r="42" spans="1:62" ht="59.25" customHeight="1">
       <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:62" ht="33" customHeight="1">
       <c r="A43" s="1">
         <v>14</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="1:62" ht="27" customHeight="1">
+      <c r="A44" s="1">
+        <v>15</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="54"/>
-    </row>
-    <row r="44" spans="1:62">
-      <c r="B44" s="38"/>
+    </row>
+    <row r="45" spans="1:62" ht="16.5">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A205EC-3CA7-4A16-B2FD-14629E180F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49989B3F-DFD0-4030-A656-239A20DC41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="270" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="390" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고캠핑 API 를 통한 캠핑장 리스트.                                     일기예보 API를 통한 날씨 정보 조회 및 그래프.                    캠핑 관련 네이버 기사 리스트.                                           유튜브 API를 통한 최근 일기예보 영상 리스트.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 단계별 맞는 페이지로 이동 버튼.                                       검색을 통한 캠핑용품 쇼핑.                                                  네이버 카페에 있는 캠핑 팁들을 조회.                                      간단한 음식 RECIPE 조회.                                                       캠핑장에서 할 수 있는 놀이 및 게임 유튜브 영상 조회.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
   </si>
   <si>
     <t>카카오 맵 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색한 캠핑장의 상세 정보 및 리뷰페이지, 예약하기 페이지로 이동하는 버튼.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,6 +503,14 @@
   </si>
   <si>
     <t>카카오 api를 통한 ai 챗봇으로 간단한 소통 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고캠핑 API 를 통한 캠핑장 리스트.                                     일기예보 API를 통한 날씨 정보 조회 및 그래프.                    캠핑 관련 네이버 기사 리스트.                                           유튜브 API를 통한 최근 일기예보 영상 리스트.                         네이버 쇼핑 API를 통한 캠핑 용품 추천 리스트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색한 캠핑장의 상세 정보 및 리뷰페이지, 예약하기 페이지로 이동하는 버튼. / 카카오 맵 API에서 제공하는 각족 카테고리 버튼을 활용한 캠핑장 주변 로드뷰, 교통정보를 확인할 수 있고,  시설버튼들을 통해 지도에 표시.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1423,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="57"/>
@@ -1449,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="54"/>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="41"/>
@@ -1648,7 +1648,7 @@
       <c r="A24" s="67"/>
       <c r="B24" s="60"/>
       <c r="C24" s="78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>55</v>
@@ -1662,7 +1662,7 @@
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
       <c r="D25" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="41"/>
@@ -1779,7 +1779,7 @@
       <c r="BI29" s="35"/>
       <c r="BJ29" s="35"/>
     </row>
-    <row r="30" spans="1:62" s="2" customFormat="1" ht="79.5" customHeight="1">
+    <row r="30" spans="1:62" s="2" customFormat="1" ht="110.25" customHeight="1">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>64</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>65</v>
@@ -1864,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>20</v>
@@ -1938,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>21</v>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>19</v>
@@ -2080,10 +2080,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
@@ -2094,12 +2094,12 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:62" ht="34.5" customHeight="1">
+    <row r="35" spans="1:62" ht="77.25" customHeight="1">
       <c r="A35" s="67"/>
       <c r="B35" s="58"/>
       <c r="C35" s="69"/>
       <c r="D35" s="42" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="6"/>
@@ -2110,13 +2110,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="45" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>73</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="53"/>
@@ -2148,13 +2148,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="73"/>
@@ -2185,10 +2185,10 @@
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
       <c r="C38" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="71"/>
       <c r="F38" s="71"/>
@@ -2197,10 +2197,10 @@
       <c r="A39" s="71"/>
       <c r="B39" s="71"/>
       <c r="C39" s="72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="71"/>
@@ -2210,7 +2210,7 @@
       <c r="B40" s="71"/>
       <c r="C40" s="69"/>
       <c r="D40" s="75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="71"/>
       <c r="F40" s="71"/>
@@ -2219,10 +2219,10 @@
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
@@ -2232,13 +2232,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="53"/>
@@ -2248,13 +2248,13 @@
         <v>14</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>24</v>
@@ -2266,30 +2266,30 @@
         <v>15</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="16.5">
+    <row r="45" spans="1:62" ht="27.75" customHeight="1">
       <c r="A45" s="1">
         <v>16</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>21</v>

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49989B3F-DFD0-4030-A656-239A20DC41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B8A35-2C4D-4AFD-8B76-79A336864310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="390" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="390" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,15 +502,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오 api를 통한 ai 챗봇으로 간단한 소통 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고캠핑 API 를 통한 캠핑장 리스트.                                     일기예보 API를 통한 날씨 정보 조회 및 그래프.                    캠핑 관련 네이버 기사 리스트.                                           유튜브 API를 통한 최근 일기예보 영상 리스트.                         네이버 쇼핑 API를 통한 캠핑 용품 추천 리스트.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검색한 캠핑장의 상세 정보 및 리뷰페이지, 예약하기 페이지로 이동하는 버튼. / 카카오 맵 API에서 제공하는 각족 카테고리 버튼을 활용한 캠핑장 주변 로드뷰, 교통정보를 확인할 수 있고,  시설버튼들을 통해 지도에 표시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 api를 통한 ai 챗봇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1790,7 +1790,7 @@
         <v>64</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>65</v>
@@ -2099,7 +2099,7 @@
       <c r="B35" s="58"/>
       <c r="C35" s="69"/>
       <c r="D35" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="6"/>
@@ -2289,7 +2289,7 @@
         <v>96</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>21</v>

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B8A35-2C4D-4AFD-8B76-79A336864310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA0D296-B342-4125-A5BC-7FE4CC244924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="390" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>번호</t>
   </si>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2118,7 +2118,9 @@
       <c r="D36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="F36" s="53"/>
       <c r="G36" s="48"/>
       <c r="H36" s="49"/>
@@ -2156,7 +2158,9 @@
       <c r="D37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="64" t="s">
+        <v>21</v>
+      </c>
       <c r="F37" s="73"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
@@ -2240,7 +2244,9 @@
       <c r="D42" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="52"/>
+      <c r="E42" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:62" ht="33" customHeight="1">

--- a/기능명세(수정 중).xlsx
+++ b/기능명세(수정 중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\602-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA0D296-B342-4125-A5BC-7FE4CC244924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D633C5C-F48E-4B07-B16E-EFC05584489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="390" windowWidth="18240" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>번호</t>
   </si>
@@ -190,19 +190,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로필 이미지 변경 및 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가입 정보 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 북마크 한 캠핑장 리스트 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,6 +503,21 @@
   </si>
   <si>
     <t>카카오 api를 통한 ai 챗봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dicebear API를 이용해 랜덤 프로필 이미지 변경 및 저장</t>
+  </si>
+  <si>
+    <t>내가 북마크 한 캠핑장 리뷰 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전선아   정영훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,16 +958,64 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,10 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,65 +1036,23 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1337,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1349,30 +1359,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="2.1" customHeight="1"/>
     <row r="6" spans="1:8" ht="35.65" customHeight="1">
@@ -1398,10 +1408,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="67">
+      <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1410,36 +1420,36 @@
       <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="57"/>
+        <v>81</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
@@ -1449,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="54"/>
@@ -1462,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="41"/>
@@ -1495,166 +1505,166 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="67">
+      <c r="A14" s="72">
         <v>2</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="82" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="57"/>
+        <v>43</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="57"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="57"/>
+        <v>44</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:62" ht="24" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="57"/>
+        <v>45</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="57"/>
+        <v>42</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:62" ht="25.5" customHeight="1">
-      <c r="A20" s="67">
+      <c r="A20" s="72">
         <v>3</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:62" ht="41.25" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:62" ht="41.25" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:62" ht="20.25" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="57"/>
+        <v>47</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:62" ht="24" customHeight="1">
-      <c r="A23" s="67">
+      <c r="A23" s="72">
         <v>4</v>
       </c>
-      <c r="B23" s="60" t="s">
-        <v>54</v>
+      <c r="B23" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:62" ht="24" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="78" t="s">
-        <v>86</v>
+      <c r="A24" s="72"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="57"/>
+        <v>53</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:62" ht="25.5" customHeight="1">
@@ -1662,7 +1672,7 @@
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
       <c r="D25" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="41"/>
@@ -1673,55 +1683,55 @@
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
       <c r="D26" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="69"/>
       <c r="F26" s="41"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:62" ht="24" customHeight="1">
-      <c r="A27" s="67">
+      <c r="A27" s="72">
         <v>5</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="79"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:62" ht="24" customHeight="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="81"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:62" ht="23.25" customHeight="1">
+      <c r="A29" s="72"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:62" ht="24" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="57"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -1787,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="36"/>
@@ -1864,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>20</v>
@@ -1938,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>21</v>
@@ -2012,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>19</v>
@@ -2076,32 +2086,32 @@
       <c r="BJ33" s="35"/>
     </row>
     <row r="34" spans="1:62" ht="23.25" customHeight="1">
-      <c r="A34" s="67">
+      <c r="A34" s="72">
         <v>10</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>68</v>
+      <c r="B34" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>66</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:62" ht="77.25" customHeight="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="69"/>
       <c r="D35" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="64"/>
+        <v>96</v>
+      </c>
+      <c r="E35" s="73"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
@@ -2110,13 +2120,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="45" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>71</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>21</v>
@@ -2146,22 +2156,22 @@
       <c r="AB36" s="49"/>
     </row>
     <row r="37" spans="1:62" ht="24" customHeight="1">
-      <c r="A37" s="67">
+      <c r="A37" s="72">
         <v>12</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="73"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="34"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
@@ -2189,10 +2199,10 @@
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
       <c r="C38" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="E38" s="71"/>
       <c r="F38" s="71"/>
@@ -2200,11 +2210,11 @@
     <row r="39" spans="1:62" ht="36" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="71"/>
-      <c r="C39" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>77</v>
+      <c r="C39" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>75</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="71"/>
@@ -2213,8 +2223,8 @@
       <c r="A40" s="71"/>
       <c r="B40" s="71"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="75" t="s">
-        <v>78</v>
+      <c r="D40" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="71"/>
       <c r="F40" s="71"/>
@@ -2223,10 +2233,10 @@
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="75" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
@@ -2235,17 +2245,17 @@
       <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>22</v>
+      <c r="B42" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>101</v>
       </c>
       <c r="F42" s="53"/>
     </row>
@@ -2253,14 +2263,14 @@
       <c r="A43" s="1">
         <v>14</v>
       </c>
-      <c r="B43" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>92</v>
+      <c r="B43" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>24</v>
@@ -2271,14 +2281,14 @@
       <c r="A44" s="1">
         <v>15</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>95</v>
+      <c r="B44" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>23</v>
@@ -2288,14 +2298,14 @@
       <c r="A45" s="1">
         <v>16</v>
       </c>
-      <c r="B45" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>99</v>
+      <c r="B45" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>97</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>21</v>
@@ -2303,18 +2313,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E23:E26"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="E34:E35"/>
@@ -2331,9 +2329,21 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E23:E26"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="E37:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
